--- a/PData.xlsx
+++ b/PData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -259,10 +259,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,13 +301,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,15 +649,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,973 +667,985 @@
       <c r="C1">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2009</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2013</v>
+      </c>
+      <c r="C3">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>2013</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>1.145</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2009</v>
-      </c>
-      <c r="C3">
+      <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2005</v>
-      </c>
-      <c r="C4">
+      <c r="B7">
+        <v>2005</v>
+      </c>
+      <c r="C7">
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2009</v>
-      </c>
-      <c r="C5">
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8">
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2013</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2.698</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2009</v>
-      </c>
-      <c r="C7">
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10">
         <v>2.677</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>2009</v>
-      </c>
-      <c r="C8">
+      <c r="B11">
+        <v>2009</v>
+      </c>
+      <c r="C11">
         <v>2.9910000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>2001</v>
-      </c>
-      <c r="C9">
+      <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12">
         <v>2.4740000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>2013</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>2009</v>
-      </c>
-      <c r="C11">
+      <c r="B14">
+        <v>2009</v>
+      </c>
+      <c r="C14">
         <v>3.782</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>2005</v>
-      </c>
-      <c r="C12">
+      <c r="B15">
+        <v>2005</v>
+      </c>
+      <c r="C15">
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>2001</v>
-      </c>
-      <c r="C13">
+      <c r="B16">
+        <v>2001</v>
+      </c>
+      <c r="C16">
         <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>2005</v>
-      </c>
-      <c r="C14">
-        <v>1.8109999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>2001</v>
-      </c>
-      <c r="C15">
-        <v>1.5669999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>2013</v>
-      </c>
-      <c r="C16">
-        <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C17">
-        <v>3.702</v>
+        <v>1.8109999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C18">
-        <v>0.82799999999999996</v>
+        <v>1.5669999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C19">
-        <v>1.218</v>
+        <v>3.9249999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>2009</v>
       </c>
       <c r="C20">
-        <v>0.39900000000000002</v>
+        <v>3.702</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C21">
-        <v>0.26400000000000001</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>2001</v>
       </c>
       <c r="C22">
-        <v>0.29099999999999998</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C23">
-        <v>9.4E-2</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C24">
-        <v>0.23400000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C25">
-        <v>0.22</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C26">
-        <v>7.6999999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C27">
-        <v>6.4000000000000001E-2</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>2009</v>
       </c>
       <c r="C28">
-        <v>4.8000000000000001E-2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>2009</v>
       </c>
       <c r="C29">
-        <v>1.024</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>2005</v>
       </c>
       <c r="C30">
-        <v>0.97399999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31">
-        <v>1.452</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C32">
-        <v>1.377</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C33">
-        <v>1.113</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>2009</v>
       </c>
       <c r="C34">
-        <v>6.5919999999999996</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>2005</v>
       </c>
       <c r="C35">
-        <v>6.2640000000000002</v>
+        <v>1.377</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C36">
-        <v>5.9020000000000001</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>2009</v>
       </c>
       <c r="C37">
-        <v>2.653</v>
+        <v>6.5919999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C38">
-        <v>3.4239999999999999</v>
+        <v>6.2640000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>2001</v>
       </c>
       <c r="C39">
-        <v>3.6720000000000002</v>
+        <v>5.9020000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C40">
-        <v>0.17699999999999999</v>
+        <v>2.653</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>2009</v>
       </c>
       <c r="C41">
-        <v>1.6870000000000001</v>
+        <v>3.4239999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>2001</v>
       </c>
       <c r="C42">
-        <v>1.58</v>
+        <v>3.6720000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C43">
-        <v>2.83</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C44">
-        <v>2.4300000000000002</v>
+        <v>1.6870000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C45">
-        <v>1.5049999999999999</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>2009</v>
       </c>
       <c r="C46">
-        <v>2.5000000000000001E-2</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>2005</v>
       </c>
       <c r="C47">
-        <v>3.2000000000000001E-2</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C48">
-        <v>0.42599999999999999</v>
+        <v>1.5049999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C49">
-        <v>0.109</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C50">
-        <v>4.2720000000000002</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>2009</v>
       </c>
       <c r="C51">
-        <v>4.7619999999999996</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C52">
-        <v>8.5000000000000006E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C53">
-        <v>0.93200000000000005</v>
+        <v>4.2720000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C54">
-        <v>0.1</v>
+        <v>4.7619999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>2009</v>
       </c>
       <c r="C55">
-        <v>7.0000000000000007E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>2009</v>
       </c>
       <c r="C56">
-        <v>0.214</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>2005</v>
       </c>
       <c r="C57">
-        <v>0.372</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>2009</v>
       </c>
       <c r="C58">
-        <v>0.64900000000000002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C59">
-        <v>0.59899999999999998</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C60">
-        <v>0.55800000000000005</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>2009</v>
       </c>
       <c r="C61">
-        <v>0.14799999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>2005</v>
       </c>
       <c r="C62">
-        <v>0.89</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B63">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C63">
-        <v>0.19800000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>2009</v>
       </c>
       <c r="C64">
-        <v>0.182</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C65">
-        <v>1.9690000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C66">
-        <v>2.3849999999999998</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67">
         <v>2009</v>
       </c>
       <c r="C67">
-        <v>0.187</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="C68">
-        <v>0.27200000000000002</v>
+        <v>1.9690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B69">
         <v>2009</v>
       </c>
       <c r="C69">
-        <v>1.9E-2</v>
+        <v>2.3849999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70">
         <v>2009</v>
       </c>
       <c r="C70">
-        <v>1.4490000000000001</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C71">
-        <v>7.3999999999999996E-2</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>2009</v>
       </c>
       <c r="C72">
-        <v>1.9590000000000001</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B73">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C73">
-        <v>1.7490000000000001</v>
+        <v>1.4490000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74">
         <v>2009</v>
       </c>
       <c r="C74">
-        <v>2.569</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>2009</v>
       </c>
       <c r="C75">
-        <v>0.62</v>
+        <v>1.9590000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B76">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C76">
-        <v>0.46899999999999997</v>
+        <v>1.7490000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C77">
-        <v>0.36799999999999999</v>
+        <v>2.569</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78">
         <v>2009</v>
       </c>
       <c r="C78">
-        <v>0.71399999999999997</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C79">
-        <v>0.90100000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C80">
-        <v>0.67900000000000005</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C81">
-        <v>0.495</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C82">
-        <v>0.40799999999999997</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C83">
-        <v>0.29799999999999999</v>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C84">
-        <v>0.81299999999999994</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C85">
-        <v>0.8</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C86">
-        <v>0.65800000000000003</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C87">
-        <v>1.65</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C88">
-        <v>1.357</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C89">
-        <v>1.389</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1613,98 +1653,98 @@
         <v>55</v>
       </c>
       <c r="B90">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C90">
-        <v>1.278</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91">
         <v>2009</v>
       </c>
       <c r="C91">
-        <v>0.92</v>
+        <v>1.357</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B92">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C92">
-        <v>2.984</v>
+        <v>1.389</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B93">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C93">
-        <v>5.6000000000000001E-2</v>
+        <v>1.278</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B94">
         <v>2009</v>
       </c>
       <c r="C94">
-        <v>2.1139999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B95">
         <v>2013</v>
       </c>
       <c r="C95">
-        <v>0.77600000000000002</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B96">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C96">
-        <v>4.9489999999999998</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B97">
         <v>2009</v>
       </c>
       <c r="C97">
-        <v>4.9909999999999997</v>
+        <v>2.1139999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="C98">
-        <v>4.6239999999999997</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1712,274 +1752,274 @@
         <v>61</v>
       </c>
       <c r="B99">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C99">
-        <v>4.4139999999999997</v>
+        <v>4.9489999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B100">
         <v>2009</v>
       </c>
       <c r="C100">
-        <v>0.64200000000000002</v>
+        <v>4.9909999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B101">
         <v>2005</v>
       </c>
       <c r="C101">
-        <v>0.49199999999999999</v>
+        <v>4.6239999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102">
         <v>2001</v>
       </c>
       <c r="C102">
-        <v>0.44700000000000001</v>
+        <v>4.4139999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B103">
         <v>2009</v>
       </c>
       <c r="C103">
-        <v>0.17</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C104">
-        <v>0.16900000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C105">
-        <v>1.9179999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C106">
-        <v>2.04</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B107">
         <v>2001</v>
       </c>
       <c r="C107">
-        <v>2.1840000000000002</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B108">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C108">
-        <v>0.34200000000000003</v>
+        <v>1.9179999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C109">
-        <v>0.308</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B110">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C110">
-        <v>2.6240000000000001</v>
+        <v>2.1840000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B111">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C111">
-        <v>0.95399999999999996</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B112">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C112">
-        <v>1.19</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B113">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C113">
-        <v>0.93300000000000005</v>
+        <v>2.6240000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114">
         <v>2001</v>
       </c>
       <c r="C114">
-        <v>0.80700000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C115">
-        <v>0.11700000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B116">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C116">
-        <v>3.5430000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B117">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="C117">
-        <v>2.8090000000000002</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B118">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C118">
-        <v>2.5339999999999998</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B119">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C119">
-        <v>2.5609999999999999</v>
+        <v>3.5430000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B120">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C120">
-        <v>1.9390000000000001</v>
+        <v>2.8090000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B121">
         <v>2013</v>
       </c>
       <c r="C121">
-        <v>1.19</v>
+        <v>2.5339999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B122">
         <v>2009</v>
       </c>
       <c r="C122">
-        <v>1.109</v>
+        <v>2.5609999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B123">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C123">
-        <v>1.2</v>
+        <v>1.9390000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1987,58 +2027,92 @@
         <v>74</v>
       </c>
       <c r="B124">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C124">
-        <v>0.53400000000000003</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B125">
         <v>2009</v>
       </c>
       <c r="C125">
-        <v>0.3</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B126">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C126">
-        <v>6.4000000000000001E-2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B127">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C127">
-        <v>5.5E-2</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128">
+        <v>2009</v>
+      </c>
+      <c r="C128">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129">
+        <v>2009</v>
+      </c>
+      <c r="C129">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130">
+        <v>2005</v>
+      </c>
+      <c r="C130">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
         <v>77</v>
       </c>
-      <c r="B128">
-        <v>2009</v>
-      </c>
-      <c r="C128">
+      <c r="B131">
+        <v>2009</v>
+      </c>
+      <c r="C131">
         <v>6.2E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
